--- a/Local Variance/Local_Variance_2_feat.xlsx
+++ b/Local Variance/Local_Variance_2_feat.xlsx
@@ -448,17 +448,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -489,72 +487,57 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>206300</v>
-      </c>
-      <c r="B3">
-        <v>36.512668529362962</v>
+        <v>109700</v>
       </c>
       <c r="E3">
-        <v>206300</v>
+        <v>207301</v>
       </c>
       <c r="F3">
-        <v>238320</v>
+        <v>224600</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>207301</v>
-      </c>
-      <c r="B4">
-        <v>35.238504503687295</v>
+        <v>109800</v>
       </c>
       <c r="E4">
-        <v>209104</v>
+        <v>238320</v>
       </c>
       <c r="F4">
-        <v>206200</v>
+        <v>192700</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>206200</v>
-      </c>
-      <c r="B5">
-        <v>34.922618086130612</v>
+        <v>111100</v>
       </c>
       <c r="E5">
-        <v>207301</v>
+        <v>231100</v>
       </c>
       <c r="F5">
-        <v>208801</v>
+        <v>207102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>207302</v>
-      </c>
-      <c r="B6">
-        <v>34.909107305109437</v>
+        <v>111301</v>
       </c>
       <c r="E6">
-        <v>208720</v>
+        <v>195710</v>
       </c>
       <c r="F6">
-        <v>277400</v>
+        <v>273300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>226002</v>
-      </c>
-      <c r="B7">
-        <v>31.428475149697551</v>
+        <v>111302</v>
       </c>
       <c r="E7">
-        <v>208903</v>
+        <v>267403</v>
       </c>
       <c r="F7">
-        <v>231100</v>
+        <v>190801</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
